--- a/ExcelFiles/Book2.xlsx
+++ b/ExcelFiles/Book2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>UserName</t>
   </si>
@@ -550,6 +550,24 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
+      <c r="B4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">

--- a/ExcelFiles/Book2.xlsx
+++ b/ExcelFiles/Book2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>UserName</t>
   </si>
@@ -573,6 +573,24 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
+      <c r="B5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
